--- a/WorkBot/main/backend/ordering/OrderFiles/Performance Food/Performance Food_Triphammer_20250321.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Performance Food/Performance Food_Triphammer_20250321.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1744,6 +1744,60 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20478</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mushroom Portobello - 4" Cap</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>130.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>39142</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Strawberry - Fresh</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>184.80</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
